--- a/assets/xlsx/word_list.xlsx
+++ b/assets/xlsx/word_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE531B4-AFD8-43CF-971A-2ECEB69CED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE51E4-9607-4AFD-9DD8-CA9AD4BA3522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,74 @@
   </si>
   <si>
     <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상머신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 시스템, 운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트로더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이너리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브러리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +126,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -94,9 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -379,95 +465,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>

--- a/assets/xlsx/word_list.xlsx
+++ b/assets/xlsx/word_list.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE51E4-9607-4AFD-9DD8-CA9AD4BA3522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11E5E5-F36F-48E4-8936-0C40F9564517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +115,78 @@
   </si>
   <si>
     <t>라이브러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNOME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰퍼샌드(&amp;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애스터리스크(*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리다이렉트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브셸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제, 리눅스 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,19 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,8 +566,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,8 +578,12 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,8 +591,12 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -512,8 +604,12 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -521,8 +617,12 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -530,8 +630,12 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -539,8 +643,12 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -548,8 +656,12 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -557,8 +669,12 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -566,8 +682,12 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -575,8 +695,12 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -584,8 +708,12 @@
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -593,8 +721,12 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -602,8 +734,12 @@
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -611,8 +747,12 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -620,26 +760,749 @@
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="D16" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A16)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
